--- a/02_要求分析/非機能要求一覧 .xlsx
+++ b/02_要求分析/非機能要求一覧 .xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{A57F4F12-B78E-40CB-B278-887546C942E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD4FCE5C-2E0C-47AA-8255-227D1E3E1CB0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE75CFC0-F777-4E5B-BDB1-DAAB3F5FFECF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -396,8 +394,26 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>UIやデータを制御するクラスを抽象クラスあるいは
-インタフェースとし継承したサブクラスごとに制御機能を実装するようにする。 →対応済み</t>
+    <t>N04-03</t>
+  </si>
+  <si>
+    <t>保守時にソースコードを理解しやすいようにする</t>
+  </si>
+  <si>
+    <t>MUST</t>
+  </si>
+  <si>
+    <t>選択肢は列挙型を使う</t>
+  </si>
+  <si>
+    <t>CUIからGUIに移行できる</t>
+  </si>
+  <si>
+    <t>UIインタフェースを実装したGUIクラスを設ける。GUI作成のための標準ライブラリであるSwingを使う。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UIやデータを制御するクラスを抽象クラスあるいは
+インタフェースとし継承したサブクラスごとに制御機能を実装するようにする。 </t>
     <rPh sb="7" eb="9">
       <t>セイギョ</t>
     </rPh>
@@ -416,38 +432,14 @@
     <rPh sb="51" eb="53">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="63" eb="65">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ズ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>N04-03</t>
-  </si>
-  <si>
-    <t>保守時にソースコードを理解しやすいようにする</t>
-  </si>
-  <si>
-    <t>MUST</t>
-  </si>
-  <si>
-    <t>選択肢は列挙型を使う</t>
-  </si>
-  <si>
-    <t>CUIからGUIに移行できる</t>
-  </si>
-  <si>
-    <t>UIインタフェースを実装したGUIクラスを設ける。GUI作成のための標準ライブラリであるSwingを使う。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1261,7 +1253,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -1650,14 +1642,14 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
@@ -1669,8 +1661,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1692,14 +1684,14 @@
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="18"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1710,14 +1702,14 @@
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="19"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1720,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1737,7 +1729,7 @@
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1740,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="23"/>
       <c r="C15" s="24" t="s">
         <v>15</v>
@@ -1761,7 +1753,7 @@
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="2:6" ht="67.5" customHeight="1">
+    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
         <v>18</v>
@@ -1776,7 +1768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1787,7 +1779,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="8" t="s">
         <v>23</v>
@@ -1800,8 +1792,8 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" ht="9" customHeight="1"/>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
@@ -1828,10 +1820,10 @@
   <dimension ref="B1:F22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -2220,14 +2212,14 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="40" t="s">
         <v>1</v>
       </c>
@@ -2239,8 +2231,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="42" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2262,7 +2254,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="22.5" customHeight="1">
+    <row r="9" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
       <c r="E9" s="18"/>
@@ -2270,7 +2262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
@@ -2281,14 +2273,14 @@
       <c r="E10" s="17"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="12">
+    <row r="11" spans="2:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="19"/>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -2299,14 +2291,14 @@
       <c r="E12" s="21"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="29"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
@@ -2317,7 +2309,7 @@
       <c r="E14" s="25"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="2:6" ht="71.25" customHeight="1">
+    <row r="15" spans="2:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="8" t="s">
         <v>15</v>
@@ -2332,7 +2324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="69.75" customHeight="1">
+    <row r="16" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="34"/>
       <c r="C16" s="8" t="s">
         <v>18</v>
@@ -2344,25 +2336,25 @@
         <v>28</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="69.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="36"/>
       <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E17" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="F17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="32" t="s">
         <v>21</v>
       </c>
@@ -2373,23 +2365,23 @@
       <c r="E18" s="25"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="2:6" ht="56.25" customHeight="1">
+    <row r="19" spans="2:6" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="33"/>
       <c r="C19" s="28" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="9" customHeight="1"/>
-    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="20" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="16"/>
     </row>
   </sheetData>
@@ -2408,6 +2400,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2591,12 +2589,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2607,6 +2599,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2624,15 +2625,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>

--- a/02_要求分析/非機能要求一覧 .xlsx
+++ b/02_要求分析/非機能要求一覧 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE75CFC0-F777-4E5B-BDB1-DAAB3F5FFECF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDEA341-BFE7-4DAC-9AD5-19DEA29961EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,8 +412,8 @@
     <t>UIインタフェースを実装したGUIクラスを設ける。GUI作成のための標準ライブラリであるSwingを使う。</t>
   </si>
   <si>
-    <t xml:space="preserve">UIやデータを制御するクラスを抽象クラスあるいは
-インタフェースとし継承したサブクラスごとに制御機能を実装するようにする。 </t>
+    <t>UIやデータを制御するクラスを抽象クラスあるいは
+インタフェースとし継承したサブクラスごとに制御機能を実装するようにする。→対応済み</t>
     <rPh sb="7" eb="9">
       <t>セイギョ</t>
     </rPh>
@@ -431,6 +431,12 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2400,12 +2406,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2589,6 +2589,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2599,15 +2605,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2625,6 +2622,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>

--- a/02_要求分析/非機能要求一覧 .xlsx
+++ b/02_要求分析/非機能要求一覧 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDEA341-BFE7-4DAC-9AD5-19DEA29961EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86E5B6-F529-46F5-8666-2F14513868FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,13 +377,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">_x000D_
-DBMSを導入しやすいようにデータ管理するクラスとデータが格納されているだけのクラスに分けて設計する。_x000D_
-データが格納されているクラスの情報_x000D_
-_x000D_
-</t>
-  </si>
-  <si>
     <t>機能追加やテストがしやすいようにする</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -403,17 +396,18 @@
     <t>MUST</t>
   </si>
   <si>
+    <t>CUIからGUIに移行できる</t>
+  </si>
+  <si>
+    <t>UIインタフェースを実装したGUIクラスを設ける。GUI作成のための標準ライブラリであるSwingを使う。</t>
+  </si>
+  <si>
     <t>選択肢は列挙型を使う</t>
-  </si>
-  <si>
-    <t>CUIからGUIに移行できる</t>
-  </si>
-  <si>
-    <t>UIインタフェースを実装したGUIクラスを設ける。GUI作成のための標準ライブラリであるSwingを使う。</t>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>UIやデータを制御するクラスを抽象クラスあるいは
-インタフェースとし継承したサブクラスごとに制御機能を実装するようにする。→対応済み</t>
+インタフェースとし継承したサブクラスごとに制御機能を実装するようにする。</t>
     <rPh sb="7" eb="9">
       <t>セイギョ</t>
     </rPh>
@@ -432,11 +426,15 @@
     <rPh sb="51" eb="53">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="62" eb="64">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ズ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DBMSを導入しやすいようにデータ管理するクラスとデータが格納されているだけのクラスに分けて設計する。
+データが格納されているクラスの情報をカプセル化する。
+</t>
+    <rPh sb="75" eb="76">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1825,8 +1823,8 @@
   </sheetPr>
   <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2327,7 +2325,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2336,28 +2334,28 @@
         <v>18</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="36"/>
       <c r="C17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="E17" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="38" t="s">
-        <v>33</v>
-      </c>
       <c r="F17" s="35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2377,13 +2375,13 @@
         <v>23</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2406,6 +2404,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2589,22 +2602,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5302E8A0-16CC-41DD-AA85-B4734B91F1E8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2620,21 +2635,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>